--- a/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
+++ b/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\Githubpro\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98EEAE-6EAB-4920-AA83-7C5A8577D751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65AC6C8-C4D3-4B7D-8BE1-56FF1B2B3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4185" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="16" r:id="rId1"/>
@@ -3638,9 +3638,6 @@
     <t>Ratio_a_i_Out</t>
   </si>
   <si>
-    <t>nanomolarity/nanomolarity</t>
-  </si>
-  <si>
     <t>Y0,Y1,Y2</t>
   </si>
   <si>
@@ -3651,6 +3648,9 @@
   </si>
   <si>
     <t>EE7</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
 </sst>
 </file>
@@ -6857,7 +6857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="G23" sqref="G23:G43"/>
     </sheetView>
   </sheetViews>
@@ -25116,8 +25116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25259,7 +25259,7 @@
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="G5" t="s">
         <v>85</v>
@@ -25277,6 +25277,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25356,7 +25357,7 @@
         <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F3" t="s">
         <v>104</v>
@@ -25392,7 +25393,7 @@
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F4" t="s">
         <v>107</v>
@@ -25428,7 +25429,7 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F5" t="s">
         <v>110</v>
@@ -25464,7 +25465,7 @@
         <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
@@ -25500,7 +25501,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F7" t="s">
         <v>116</v>
@@ -25536,10 +25537,10 @@
         <v>103</v>
       </c>
       <c r="E8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F8" t="s">
         <v>1195</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1196</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -25572,10 +25573,10 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F9" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -25608,10 +25609,10 @@
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -25644,7 +25645,7 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G11">
         <v>2</v>

--- a/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
+++ b/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\Githubpro\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65AC6C8-C4D3-4B7D-8BE1-56FF1B2B3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB948B57-9EF5-4C07-BD37-726FF87C198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="16" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1200">
   <si>
     <t>!!SBtab</t>
   </si>
@@ -3651,6 +3651,9 @@
   </si>
   <si>
     <t>dimensionless</t>
+  </si>
+  <si>
+    <t>EE8</t>
   </si>
 </sst>
 </file>
@@ -25116,8 +25119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25285,8 +25288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25646,6 +25649,9 @@
       </c>
       <c r="E11" t="s">
         <v>1194</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1199</v>
       </c>
       <c r="G11">
         <v>2</v>

--- a/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
+++ b/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipa\Documents\GitHub\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4EA24-4408-487D-B66D-7BD0CA71D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DCD364-647D-4968-9976-6A987E6249D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="2268" windowWidth="17280" windowHeight="9108" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="16" r:id="rId1"/>
@@ -6860,7 +6860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H103"/>
     </sheetView>
   </sheetViews>

--- a/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
+++ b/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipa\Documents\GitHub\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED7DBF8-2FDD-470F-B71C-FBD2B422F83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CCD386-248D-445E-8C13-FCE2A4476817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="16" r:id="rId1"/>
@@ -17764,8 +17764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18053,7 +18053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DA3C4A-A7A8-4808-B747-368AEA3547BA}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H103"/>
     </sheetView>
   </sheetViews>

--- a/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
+++ b/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\GitHub\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1CFCA7-B753-4A9B-9444-1D441D5FDA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A3F3D-9A5A-455E-B89C-D6BC867FC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="220" windowWidth="17140" windowHeight="15560" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="3850" windowWidth="38700" windowHeight="15450" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="16" r:id="rId1"/>
@@ -4055,7 +4055,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -6797,7 +6797,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6840,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -6863,8 +6863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H103"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9538,8 +9538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9582,7 +9582,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -24851,7 +24851,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25294,7 +25294,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="M11" sqref="A7:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28364,7 +28364,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28410,7 +28410,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -28433,7 +28433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:H63"/>
     </sheetView>
   </sheetViews>

--- a/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
+++ b/Matlab/Model/Model_Example_Small/SBTAB_Example_Small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\GitHub\Thesis_Code\Subcellular_workflow\Matlab\Model\Model_Example_Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A3F3D-9A5A-455E-B89C-D6BC867FC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A021B179-A2E5-4F6B-A337-F15EC977F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="3850" windowWidth="38700" windowHeight="15450" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51820" windowHeight="21100" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment" sheetId="16" r:id="rId1"/>
@@ -9538,7 +9538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -25294,7 +25294,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="A7:M11"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28363,8 +28363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
